--- a/자유수강권/마술(수강).xlsx
+++ b/자유수강권/마술(수강).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="73">
   <si>
     <t>주야</t>
   </si>
@@ -157,6 +157,12 @@
     <t>권주안</t>
   </si>
   <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>장성주</t>
+  </si>
+  <si>
     <t>정주은</t>
   </si>
   <si>
@@ -169,6 +175,9 @@
     <t>김유하</t>
   </si>
   <si>
+    <t>박성경</t>
+  </si>
+  <si>
     <t>고윤서</t>
   </si>
   <si>
@@ -184,6 +193,12 @@
     <t>최승민</t>
   </si>
   <si>
+    <t>4학년</t>
+  </si>
+  <si>
+    <t>장서주</t>
+  </si>
+  <si>
     <t>5학년</t>
   </si>
   <si>
@@ -203,9 +218,6 @@
   </si>
   <si>
     <t>방세영</t>
-  </si>
-  <si>
-    <t>20</t>
   </si>
   <si>
     <t>조이택</t>
@@ -589,7 +601,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H34"/>
+  <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1079,10 +1091,10 @@
         <v>45</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>13</v>
@@ -1099,16 +1111,16 @@
         <v>8</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="D20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>50</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>13</v>
@@ -1125,16 +1137,16 @@
         <v>8</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>13</v>
@@ -1151,16 +1163,16 @@
         <v>8</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>13</v>
@@ -1177,16 +1189,16 @@
         <v>8</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>13</v>
@@ -1203,16 +1215,16 @@
         <v>8</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>13</v>
@@ -1229,16 +1241,16 @@
         <v>8</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>25</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>13</v>
@@ -1255,13 +1267,13 @@
         <v>8</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>57</v>
@@ -1281,10 +1293,10 @@
         <v>8</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>31</v>
@@ -1307,13 +1319,13 @@
         <v>8</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>60</v>
@@ -1333,16 +1345,16 @@
         <v>8</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>13</v>
@@ -1359,16 +1371,16 @@
         <v>8</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>13</v>
@@ -1385,16 +1397,16 @@
         <v>8</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>13</v>
@@ -1411,10 +1423,10 @@
         <v>8</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>17</v>
@@ -1437,13 +1449,13 @@
         <v>8</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>67</v>
@@ -1463,13 +1475,13 @@
         <v>8</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>25</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>68</v>
@@ -1481,6 +1493,84 @@
         <v>13</v>
       </c>
       <c r="H34" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="13.5">
+      <c r="A35" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="13.5">
+      <c r="A36" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="13.5">
+      <c r="A37" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H37" s="1" t="s">
         <v>13</v>
       </c>
     </row>
